--- a/src/main/resources/template/excel/export/CashDailyReport_MD.xlsx
+++ b/src/main/resources/template/excel/export/CashDailyReport_MD.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13035"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,24 +30,26 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="P4")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="1" shapeId="0">
+    <comment ref="A4" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
@@ -170,6 +177,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,29 +193,31 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -311,9 +323,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -329,15 +344,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -392,7 +405,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,7 +440,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -639,155 +652,155 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="C4" sqref="C4:P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="16" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="16" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="7" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="8" t="s">
         <v>22</v>
       </c>
     </row>

--- a/src/main/resources/template/excel/export/CashDailyReport_MD.xlsx
+++ b/src/main/resources/template/excel/export/CashDailyReport_MD.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -39,11 +39,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="P4")</t>
+          <t>jx:area(lastCell="Q4")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="1">
+    <comment ref="A4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:each(items="reportList" var="obj" lastCell="P4")</t>
+jx:each(items="reportList" var="obj" lastCell="Q4")</t>
         </r>
       </text>
     </comment>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>收银日报</t>
   </si>
@@ -170,6 +170,14 @@
   </si>
   <si>
     <t>${obj.mallWzf}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HS深圳通</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.zzt}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -193,20 +201,23 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -329,6 +340,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -344,13 +356,80 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -370,7 +449,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -649,91 +728,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:P4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="16" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="17" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+    <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
@@ -746,67 +829,71 @@
       <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="Q4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A1:P1"/>
+  <mergeCells count="16">
+    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -819,8 +906,9 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
